--- a/characterization/evaluation.xlsx
+++ b/characterization/evaluation.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 Documents\School\2019 Winter\CPEN431\01 Assignments\a6\cpen431_tests\characterization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE192857-2EC7-4E3A-8FEA-CB98125900E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED3F195-4CCC-407C-B495-A5A568224165}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{4A74A29F-22B2-444C-9B02-847E95F6C2E4}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{4A74A29F-22B2-444C-9B02-847E95F6C2E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Latency vs Goodput" sheetId="2" r:id="rId1"/>
     <sheet name="Memory Usage vs Goodput" sheetId="3" r:id="rId2"/>
     <sheet name="Goodput" sheetId="4" r:id="rId3"/>
     <sheet name="Data" sheetId="1" r:id="rId4"/>
+    <sheet name="Localhost_32_60" sheetId="5" r:id="rId5"/>
+    <sheet name="AWS_32_60" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Data!$C$3:$C$32</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Data!$C$3:$C$32</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Data!$A$3:$A$101</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Data!$C$3:$C$101</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Data!$C$3:$C$32</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Data!#REF!</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Data!$A$3:$A$101</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Data!$C$3:$C$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,12 +43,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
   <si>
     <t>planetlab1.temple.edu</t>
   </si>
   <si>
     <t>node2.planetlab.mathcs.emory.edu</t>
+  </si>
+  <si>
+    <t>planetlab1.dtc.umn.edu</t>
   </si>
   <si>
     <t>planetlab3.wail.wisc.edu</t>
@@ -85,6 +90,9 @@
     <t>node1.planetlab.mathcs.emory.edu</t>
   </si>
   <si>
+    <t>node1.planetlab.albany.edu</t>
+  </si>
+  <si>
     <t>planetlab1.cs.ubc.ca</t>
   </si>
   <si>
@@ -100,6 +108,15 @@
     <t>planetlab1.rutgers.edu</t>
   </si>
   <si>
+    <t>planetlab-2.calpoly-netlab.net</t>
+  </si>
+  <si>
+    <t>planetlab-02.bu.edu</t>
+  </si>
+  <si>
+    <t>planetlab-01.bu.edu</t>
+  </si>
+  <si>
     <t>planetlab1.cs.purdue.edu</t>
   </si>
   <si>
@@ -107,6 +124,9 @@
   </si>
   <si>
     <t>planetlab02.cs.washington.edu</t>
+  </si>
+  <si>
+    <t>planetlab2.dtc.umn.edu</t>
   </si>
   <si>
     <t>planetlab2.inf.ethz.ch</t>
@@ -332,63 +352,58 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8952461562736226E-2"/>
+                  <c:y val="-5.3514887319792551E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C1B64A93-B629-4C6D-B009-EF29647D0B86}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-CA"/>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-5E4C-43BF-8136-97B5A8BD942D}"/>
                 </c:ext>
@@ -426,9 +441,26 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-5E4C-43BF-8136-97B5A8BD942D}"/>
                 </c:ext>
@@ -441,34 +473,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F3739E26-6618-4B3D-BBBC-61D979E52603}" type="CELLRANGE">
+                    <a:fld id="{D2E5C1BB-0E32-4592-8E77-BD8ECEE9757F}" type="CELLRANGE">
                       <a:rPr lang="en-CA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -491,6 +496,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-5E4C-43BF-8136-97B5A8BD942D}"/>
                 </c:ext>
               </c:extLst>
@@ -507,12 +522,462 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6216B789-C14A-46A4-A202-FE40042F5977}" type="CELLRANGE">
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.3925240397738038E-4"/>
+                  <c:y val="-2.5234888611320047E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{94F2356B-B944-4A35-8AD2-012BB42569F0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5344835088807137E-2"/>
+                  <c:y val="1.920510935913659E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E6AE4C37-A78A-44AF-BDC2-1C3041DAD25D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.1071251270969341E-2"/>
+                  <c:y val="1.1125109728144447E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{93B7FDB9-D36C-48B3-8347-862A8CE800A5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3427127763395232E-2"/>
+                  <c:y val="-2.5234888611320047E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0B672E28-B8E2-4AF8-A97A-4C434083E5DB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.7665156181629006E-2"/>
+                  <c:y val="-3.3314888242312192E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D547577B-41CC-4BDD-AA3E-76BAC773A6C7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1149137495306548E-2"/>
+                  <c:y val="5.0651100049004692E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FBE99479-B006-4C57-9DAA-26009A9AF86A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4856272687430245E-2"/>
+                  <c:y val="-4.139488787330433E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D75DBE9C-4780-40C8-92BB-107436B9FCEA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8794936968346991E-2"/>
+                  <c:y val="-1.5134889072580017E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{99870480-4A9A-42F0-A8AA-A991FA888245}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7334439255081939E-2"/>
+                  <c:y val="1.9205109359136739E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BBC8414A-68B2-405B-A04E-8F76A9297CAE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.9866607230682904E-2"/>
+                  <c:y val="-2.5234888611320196E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B621DB4C-B134-440E-BFF4-BBFCF2017979}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1B45F5C0-D291-4DA9-B57A-BF8884DF43D9}" type="CELLRANGE">
                       <a:rPr lang="en-CA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -534,354 +999,6 @@
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8F14EA2E-8892-4395-8419-D897D02D863F}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{86DDA4C1-00F8-4CED-99DD-C1CB6D6E8BF3}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6073222C-C244-4A93-99E4-7D5EF4A4D81C}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{91B1D95B-8BE9-49C0-99A6-8615D7D44096}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BB0093FD-918F-478E-A832-6C4D9E91A700}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001D-5E4C-43BF-8136-97B5A8BD942D}"/>
                 </c:ext>
@@ -2763,21 +2880,7 @@
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2788,73 +2891,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>66.377300000000005</c:v>
+                  <c:v>53.648000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.970200000000006</c:v>
+                  <c:v>76.459000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.908900000000003</c:v>
+                  <c:v>35.131999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.292999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.064700000000201</c:v>
+                  <c:v>8.2210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.580799999999996</c:v>
+                  <c:v>42.146000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.360699999999895</c:v>
+                  <c:v>69.204999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.467599999999901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.7562999999998201</c:v>
+                  <c:v>82.262</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.153</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>210.375699999999</c:v>
+                  <c:v>83.447999999999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.022900000000007</c:v>
+                  <c:v>70.173000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>197.570799999999</c:v>
+                  <c:v>7.2560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>175.71459999999999</c:v>
+                  <c:v>68.278000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>221.98419999999899</c:v>
+                  <c:v>60.152999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.030199999999901</c:v>
+                  <c:v>83.555999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85.99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.648999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>70.692500000000194</c:v>
+                  <c:v>77.397999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>104.467399999999</c:v>
+                  <c:v>32.716999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>131.61989999999901</c:v>
+                  <c:v>83.554000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>78.452799999999996</c:v>
+                  <c:v>81.465000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38.513100000000001</c:v>
+                  <c:v>8.2379999999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>59.971499999999899</c:v>
+                  <c:v>185.55</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>182.68600000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.934699999999999</c:v>
+                  <c:v>187.512</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41.771999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>39.6233</c:v>
+                  <c:v>69.546000000000006</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>72.277699999999996</c:v>
+                  <c:v>106.31399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2866,73 +2987,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>21.324784279949601</c:v>
+                  <c:v>582.13030953927102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.754871395167498</c:v>
+                  <c:v>372.18476903870101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.191204834769099</c:v>
+                  <c:v>844.68428854577803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>414.85784672747798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>872.63247322216796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.896959403203699</c:v>
+                  <c:v>2723.3590220568599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.5517329581787</c:v>
+                  <c:v>754.51774620675803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.216636359247499</c:v>
+                  <c:v>459.05624562922497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.3225553595923</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.617195161817499</c:v>
+                  <c:v>385.89950568380402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>535.52758632171196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.659361907831101</c:v>
+                  <c:v>372.69065610332501</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.075726347982101</c:v>
+                  <c:v>443.29210434319299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.2286473911598</c:v>
+                  <c:v>2720.2086309424899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.5496420790538</c:v>
+                  <c:v>462.02510571704403</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5936232694727996</c:v>
+                  <c:v>528.80452880452799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.822537090573999</c:v>
+                  <c:v>368.10745135895303</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>370.92452359157801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>520.43161154960501</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8984675216445197</c:v>
+                  <c:v>6.3378731167237996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.331543967280101</c:v>
+                  <c:v>973.13144437226197</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7192102789094301</c:v>
+                  <c:v>80.013929886239197</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.0375296988896</c:v>
+                  <c:v>92.121613785104799</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22.610384854226702</c:v>
+                  <c:v>2732.9620084795001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.152405988523</c:v>
+                  <c:v>165.41503289692201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>173.88631341076299</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>23.9895529366243</c:v>
+                  <c:v>161.49718405794599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.95548180886601</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.353619844245699</c:v>
+                  <c:v>9.2869193740616307</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21.141514824455498</c:v>
+                  <c:v>1.29562951022191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2948,70 +3087,88 @@
                     <c:v>planetlab3.wail.wisc.edu</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>salt.planetlab.cs.umd.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>planetlab1.cs.uoregon.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>planetlab1.temple.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>planetlab3.cs.uoregon.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>planetlab01.cs.washington.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>planetlab1.dtc.umn.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>node2.planetlab.mathcs.emory.edu</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="8">
                     <c:v>planetlab3.rutgers.edu</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="10">
+                    <c:v>planetlab2.cs.ubc.ca</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>planetlab2.citadel.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>node1.planetlab.albany.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>planetlab04.cs.washington.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>node1.planetlab.mathcs.emory.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>planetlab-5.eecs.cwru.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>plink.cs.uwaterloo.ca</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>pl1.rcc.uottawa.ca</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>planetlab1.cs.ubc.ca</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>planetlab2.cs.purdue.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>planetlab-2.calpoly-netlab.net</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>planetlab-02.bu.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>planetlab-01.bu.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
                     <c:v>planetlab02.cs.washington.edu</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>salt.planetlab.cs.umd.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>planetlab-5.eecs.cwru.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>planetlab1.cs.ubc.ca</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>planetlab04.cs.washington.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="24">
                     <c:v>planetlab1.pop-pa.rnp.br</c:v>
                   </c:pt>
-                  <c:pt idx="12">
-                    <c:v>pl1.rcc.uottawa.ca</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="25">
                     <c:v>planetlab2.inf.ethz.ch</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="26">
                     <c:v>planetlab1.cesnet.cz</c:v>
                   </c:pt>
-                  <c:pt idx="15">
-                    <c:v>planetlab1.rutgers.edu</c:v>
+                  <c:pt idx="27">
+                    <c:v>planetlab2.dtc.umn.edu</c:v>
                   </c:pt>
-                  <c:pt idx="16">
-                    <c:v>planetlab2.cs.ubc.ca</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="28">
                     <c:v>planetlab1.cs.purdue.edu</c:v>
                   </c:pt>
-                  <c:pt idx="20">
-                    <c:v>planetlab2.citadel.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>planetlab2.cs.purdue.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>node1.planetlab.mathcs.emory.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>planetlab3.cs.uoregon.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>plink.cs.uwaterloo.ca</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>planetlab01.cs.washington.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>planetlab1.cs.uoregon.edu</c:v>
-                  </c:pt>
                   <c:pt idx="29">
-                    <c:v>planetlab1.temple.edu</c:v>
+                    <c:v>planetlab1.rutgers.edu</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -3427,76 +3584,18 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8EC1C078-2E9D-466F-B3D0-34D53631061A}" type="CELLRANGE">
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2903707127112402E-3"/>
+                  <c:y val="1.0251101894044165E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{61E57044-FACE-478B-9A45-0F626AF45E9B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3505,7 +3604,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3515,129 +3614,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
+                  <c16:uniqueId val="{00000002-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{481F9218-225E-4474-9403-C55A58B8068A}" type="CELLRANGE">
+                  <c16:uniqueId val="{00000003-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2903707127112402E-3"/>
+                  <c:y val="-1.1094889257083797E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C527F050-F09B-452F-88C8-68E50BEB877B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3646,7 +3653,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3656,86 +3663,21 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4B8EA4B6-3C79-4B06-A966-ECF80E960FB7}" type="CELLRANGE">
+                  <c16:uniqueId val="{00000004-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0D4952C0-AD02-481C-8855-8910E714EAD6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3758,28 +3700,111 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
+                  <c16:uniqueId val="{00000005-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{179CB525-A3B2-4B9B-A720-DAE09F8E92BD}" type="CELLRANGE">
+                  <c16:uniqueId val="{00000006-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.879281200111315E-2"/>
+                  <c:y val="1.7185109451388701E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9DA85904-84CE-4FAE-BC73-2F33591D60C5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3788,7 +3813,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3798,79 +3823,77 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
+                  <c16:uniqueId val="{0000000D-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
+                  <c16:uniqueId val="{0000000E-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
+                  <c16:uniqueId val="{0000000F-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{39833C43-A45A-435A-BD44-ECCCEF98DE49}" type="CELLRANGE">
+                  <c16:uniqueId val="{00000010-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.0810002651303494E-2"/>
+                  <c:y val="1.5165109543640518E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{36101D34-24CF-4350-A716-87FE0E6C429B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3879,7 +3902,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3889,49 +3912,21 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0F3D6C3E-5E50-403A-A5DA-933007DE4C00}" type="CELLRANGE">
+                  <c16:uniqueId val="{00000013-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9617AB6A-2955-4F4F-909F-BA57EB5C3704}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3954,15 +3949,307 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3B29C806-DA46-48BD-814B-0BD01026DFFA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.4965203517265155E-4"/>
+                  <c:y val="-9.9488971834361907E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{04EDF010-029D-4D35-A6A4-F04961C479AC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.1724597321017676E-2"/>
+                  <c:y val="-3.7354888057808261E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{374928C0-2B7D-4BF9-B3AA-676D0D9833B7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C5B99733-26C6-42F7-AE90-F04797DEE0F1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0C718EA0-270C-4673-B5D7-BC47D44F0C1C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8319515659831183E-2"/>
+                  <c:y val="1.9205109359136739E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E9D8756A-D690-403F-8E9D-7D631D8CC125}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9082861371685391E-2"/>
+                  <c:y val="-1.917488888807594E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EFECC2C5-7927-4F45-993A-C5365509E7A4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001C-5903-45F4-9420-91AEE19A663C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="29"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BEC8E645-CD58-4C85-8499-97AB66FB9299}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001D-5903-45F4-9420-91AEE19A663C}"/>
                 </c:ext>
@@ -5855,73 +6142,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1416666666666599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.875</c:v>
+                  <c:v>1.25454545454545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.13333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25833333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1083333333333301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6</c:v>
+                  <c:v>1.0833333333333299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37272727272727202</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.84</c:v>
+                  <c:v>0.65454545454545399</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2</c:v>
+                  <c:v>1.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1416666666666599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0833333333333299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.358333333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.24166666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.50833333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.266666666666666</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.73333333333333295</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.72499999999999898</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.875</c:v>
+                <c:pt idx="25">
+                  <c:v>0.218181818181818</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5</c:v>
+                  <c:v>1.21818181818181</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.875</c:v>
+                  <c:v>0.73749999999999905</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.875</c:v>
+                  <c:v>2.0874999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5933,73 +6238,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>21.324784279949601</c:v>
+                  <c:v>582.13030953927102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.754871395167498</c:v>
+                  <c:v>372.18476903870101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.191204834769099</c:v>
+                  <c:v>844.68428854577803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>414.85784672747798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>872.63247322216796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.896959403203699</c:v>
+                  <c:v>2723.3590220568599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.5517329581787</c:v>
+                  <c:v>754.51774620675803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.216636359247499</c:v>
+                  <c:v>459.05624562922497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.3225553595923</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.617195161817499</c:v>
+                  <c:v>385.89950568380402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>535.52758632171196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.659361907831101</c:v>
+                  <c:v>372.69065610332501</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.075726347982101</c:v>
+                  <c:v>443.29210434319299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.2286473911598</c:v>
+                  <c:v>2720.2086309424899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.5496420790538</c:v>
+                  <c:v>462.02510571704403</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5936232694727996</c:v>
+                  <c:v>528.80452880452799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.822537090573999</c:v>
+                  <c:v>368.10745135895303</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>370.92452359157801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>520.43161154960501</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8984675216445197</c:v>
+                  <c:v>6.3378731167237996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.331543967280101</c:v>
+                  <c:v>973.13144437226197</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7192102789094301</c:v>
+                  <c:v>80.013929886239197</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.0375296988896</c:v>
+                  <c:v>92.121613785104799</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22.610384854226702</c:v>
+                  <c:v>2732.9620084795001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.152405988523</c:v>
+                  <c:v>165.41503289692201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>173.88631341076299</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>23.9895529366243</c:v>
+                  <c:v>161.49718405794599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.95548180886601</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.353619844245699</c:v>
+                  <c:v>9.2869193740616307</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21.141514824455498</c:v>
+                  <c:v>1.29562951022191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6015,70 +6338,88 @@
                     <c:v>planetlab3.wail.wisc.edu</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>salt.planetlab.cs.umd.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>planetlab1.cs.uoregon.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>planetlab1.temple.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>planetlab3.cs.uoregon.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>planetlab01.cs.washington.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>planetlab1.dtc.umn.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>node2.planetlab.mathcs.emory.edu</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="8">
                     <c:v>planetlab3.rutgers.edu</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="10">
+                    <c:v>planetlab2.cs.ubc.ca</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>planetlab2.citadel.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>node1.planetlab.albany.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>planetlab04.cs.washington.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>node1.planetlab.mathcs.emory.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>planetlab-5.eecs.cwru.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>plink.cs.uwaterloo.ca</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>pl1.rcc.uottawa.ca</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>planetlab1.cs.ubc.ca</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>planetlab2.cs.purdue.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>planetlab-2.calpoly-netlab.net</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>planetlab-02.bu.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>planetlab-01.bu.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
                     <c:v>planetlab02.cs.washington.edu</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>salt.planetlab.cs.umd.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>planetlab-5.eecs.cwru.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>planetlab1.cs.ubc.ca</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>planetlab04.cs.washington.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="24">
                     <c:v>planetlab1.pop-pa.rnp.br</c:v>
                   </c:pt>
-                  <c:pt idx="12">
-                    <c:v>pl1.rcc.uottawa.ca</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="25">
                     <c:v>planetlab2.inf.ethz.ch</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="26">
                     <c:v>planetlab1.cesnet.cz</c:v>
                   </c:pt>
-                  <c:pt idx="15">
-                    <c:v>planetlab1.rutgers.edu</c:v>
+                  <c:pt idx="27">
+                    <c:v>planetlab2.dtc.umn.edu</c:v>
                   </c:pt>
-                  <c:pt idx="16">
-                    <c:v>planetlab2.cs.ubc.ca</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="28">
                     <c:v>planetlab1.cs.purdue.edu</c:v>
                   </c:pt>
-                  <c:pt idx="20">
-                    <c:v>planetlab2.citadel.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>planetlab2.cs.purdue.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>node1.planetlab.mathcs.emory.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>planetlab3.cs.uoregon.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>plink.cs.uwaterloo.ca</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>planetlab01.cs.washington.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>planetlab1.cs.uoregon.edu</c:v>
-                  </c:pt>
                   <c:pt idx="29">
-                    <c:v>planetlab1.temple.edu</c:v>
+                    <c:v>planetlab1.rutgers.edu</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -6534,148 +6875,100 @@
                   <c:v>planetlab3.wail.wisc.edu</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>salt.planetlab.cs.umd.edu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>planetlab1.cs.uoregon.edu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>planetlab1.temple.edu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>planetlab3.cs.uoregon.edu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>planetlab01.cs.washington.edu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>planetlab1.dtc.umn.edu</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>node2.planetlab.mathcs.emory.edu</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>planetlab3.rutgers.edu</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>planetlab2.cs.ubc.ca</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>planetlab2.citadel.edu</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>node1.planetlab.albany.edu</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>planetlab04.cs.washington.edu</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>node1.planetlab.mathcs.emory.edu</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>planetlab-5.eecs.cwru.edu</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>plink.cs.uwaterloo.ca</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>pl1.rcc.uottawa.ca</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>planetlab1.cs.ubc.ca</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>planetlab2.cs.purdue.edu</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>planetlab-2.calpoly-netlab.net</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>planetlab-02.bu.edu</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>planetlab-01.bu.edu</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>planetlab02.cs.washington.edu</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>salt.planetlab.cs.umd.edu</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>planetlab-5.eecs.cwru.edu</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>planetlab1.cs.ubc.ca</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>planetlab04.cs.washington.edu</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="24">
                   <c:v>planetlab1.pop-pa.rnp.br</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>pl1.rcc.uottawa.ca</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
                   <c:v>planetlab2.inf.ethz.ch</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="26">
                   <c:v>planetlab1.cesnet.cz</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="27">
+                  <c:v>planetlab2.dtc.umn.edu</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>planetlab1.cs.purdue.edu</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>planetlab1.rutgers.edu</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>planetlab2.cs.ubc.ca</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>planetlab1.cs.purdue.edu</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>planetlab2.citadel.edu</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>planetlab2.cs.purdue.edu</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>node1.planetlab.mathcs.emory.edu</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>planetlab3.cs.uoregon.edu</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>plink.cs.uwaterloo.ca</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>planetlab01.cs.washington.edu</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>planetlab1.cs.uoregon.edu</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>planetlab1.temple.edu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$3:$C$32</c:f>
+              <c:f>Data!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21.324784279949601</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.754871395167498</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.191204834769099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.896959403203699</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.5517329581787</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.216636359247499</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.3225553595923</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.617195161817499</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.659361907831101</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21.075726347982101</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.2286473911598</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18.5496420790538</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.5936232694727996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.822537090573999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.8984675216445197</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19.331543967280101</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.7192102789094301</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18.0375296988896</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22.610384854226702</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22.152405988523</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23.9895529366243</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22.353619844245699</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>21.141514824455498</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8476,7 +8769,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A442CCD0-2FF3-4537-87BF-517CD57FBC15}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="101" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8487,7 +8780,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{16123023-61F7-48C9-AD7A-B1C8435526B7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8904,7 +9197,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -8915,57 +9208,57 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>66.377300000000005</v>
+        <v>53.648000000000003</v>
       </c>
       <c r="C3">
-        <v>21.324784279949601</v>
+        <v>582.13030953927102</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -8977,24 +9270,24 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="I3">
-        <v>0.9</v>
+        <v>1.1416666666666599</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>84.970200000000006</v>
+        <v>76.459000000000003</v>
       </c>
       <c r="C4">
-        <v>18.754871395167498</v>
+        <v>372.18476903870101</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -9006,24 +9299,24 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H4">
         <v>0.9</v>
       </c>
       <c r="I4">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>72.908900000000003</v>
+        <v>35.131999999999998</v>
       </c>
       <c r="C5">
-        <v>19.191204834769099</v>
+        <v>844.68428854577803</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -9035,24 +9328,82 @@
         <v>0</v>
       </c>
       <c r="G5">
+        <v>0.9</v>
+      </c>
+      <c r="H5">
+        <v>1.5</v>
+      </c>
+      <c r="I5">
+        <v>1.25454545454545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>76.97</v>
+      </c>
+      <c r="C6">
+        <v>414.85784672747798</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0.8</v>
       </c>
-      <c r="H5">
+      <c r="H6">
+        <v>1.3</v>
+      </c>
+      <c r="I6">
+        <v>1.13333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>35.292999999999999</v>
+      </c>
+      <c r="C7">
+        <v>872.63247322216796</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0.9</v>
       </c>
-      <c r="I5">
-        <v>0.875</v>
+      <c r="H7">
+        <v>1.5</v>
+      </c>
+      <c r="I7">
+        <v>1.25833333333333</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>36.064700000000201</v>
+        <v>8.2210000000000001</v>
       </c>
       <c r="C8">
-        <v>21.896959403203699</v>
+        <v>2723.3590220568599</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9064,24 +9415,24 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="I8">
-        <v>0.5</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>88.580799999999996</v>
+        <v>42.146000000000001</v>
       </c>
       <c r="C9">
-        <v>19.5517329581787</v>
+        <v>754.51774620675803</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -9096,21 +9447,21 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>74.360699999999895</v>
+        <v>69.204999999999998</v>
       </c>
       <c r="C10">
-        <v>18.216636359247499</v>
+        <v>459.05624562922497</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -9125,21 +9476,21 @@
         <v>0.9</v>
       </c>
       <c r="H10">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="I10">
-        <v>0.9</v>
+        <v>1.1083333333333301</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>22.467599999999901</v>
+        <v>82.262</v>
       </c>
       <c r="C11">
-        <v>18.3225553595923</v>
+        <v>385.89950568380402</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -9151,53 +9502,53 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H11">
+        <v>1.2</v>
+      </c>
+      <c r="I11">
+        <v>1.0833333333333299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>13.153</v>
+      </c>
+      <c r="C13">
+        <v>535.52758632171196</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>0.3</v>
       </c>
-      <c r="I11">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>9.7562999999998201</v>
-      </c>
-      <c r="C12">
-        <v>18.617195161817499</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0.6</v>
-      </c>
-      <c r="H12">
-        <v>0.6</v>
-      </c>
-      <c r="I12">
-        <v>0.6</v>
+      <c r="H13">
+        <v>0.4</v>
+      </c>
+      <c r="I13">
+        <v>0.37272727272727202</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>210.375699999999</v>
+        <v>83.447999999999993</v>
       </c>
       <c r="C14">
-        <v>18.659361907831101</v>
+        <v>372.69065610332501</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -9209,24 +9560,24 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I14">
-        <v>0.84</v>
+        <v>0.65454545454545399</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>75.022900000000007</v>
+        <v>70.173000000000002</v>
       </c>
       <c r="C15">
-        <v>21.075726347982101</v>
+        <v>443.29210434319299</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -9238,24 +9589,24 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>197.570799999999</v>
+        <v>7.2560000000000002</v>
       </c>
       <c r="C16">
-        <v>18.2286473911598</v>
+        <v>2720.2086309424899</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -9267,24 +9618,24 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I16">
-        <v>0.2</v>
+        <v>1.69999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>175.71459999999999</v>
+        <v>68.278000000000006</v>
       </c>
       <c r="C17">
-        <v>18.5496420790538</v>
+        <v>462.02510571704403</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -9296,13 +9647,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
@@ -9310,10 +9661,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>221.98419999999899</v>
+        <v>60.152999999999999</v>
       </c>
       <c r="C18">
-        <v>5.5936232694727996</v>
+        <v>528.80452880452799</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -9325,24 +9676,24 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="I18">
-        <v>2.1</v>
+        <v>1.1416666666666599</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>19.030199999999901</v>
+        <v>83.555999999999997</v>
       </c>
       <c r="C19">
-        <v>17.822537090573999</v>
+        <v>368.10745135895303</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -9354,24 +9705,82 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H19">
+        <v>1.2</v>
+      </c>
+      <c r="I19">
+        <v>1.0833333333333299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>85.99</v>
+      </c>
+      <c r="C20">
+        <v>370.92452359157801</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.4</v>
+      </c>
+      <c r="H20">
+        <v>0.6</v>
+      </c>
+      <c r="I20">
+        <v>0.53333333333333299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>14.648999999999999</v>
+      </c>
+      <c r="C21">
+        <v>520.43161154960501</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>0.3</v>
       </c>
-      <c r="I19">
-        <v>0.266666666666666</v>
+      <c r="H21">
+        <v>0.4</v>
+      </c>
+      <c r="I21">
+        <v>0.358333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>70.692500000000194</v>
+        <v>77.397999999999996</v>
       </c>
       <c r="C22">
-        <v>6.8984675216445197</v>
+        <v>6.3378731167237996</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -9383,24 +9792,24 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H22">
         <v>0.8</v>
       </c>
       <c r="I22">
-        <v>0.73333333333333295</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>104.467399999999</v>
+        <v>32.716999999999999</v>
       </c>
       <c r="C23">
-        <v>19.331543967280101</v>
+        <v>973.13144437226197</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -9412,24 +9821,24 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I23">
-        <v>0.5</v>
+        <v>1.24166666666666</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>131.61989999999901</v>
+        <v>83.554000000000002</v>
       </c>
       <c r="C24">
-        <v>5.7192102789094301</v>
+        <v>80.013929886239197</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -9441,24 +9850,24 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.72499999999999898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>78.452799999999996</v>
+        <v>81.465000000000003</v>
       </c>
       <c r="C25">
-        <v>18.0375296988896</v>
+        <v>92.121613785104799</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -9470,24 +9879,24 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>38.513100000000001</v>
+        <v>8.2379999999999995</v>
       </c>
       <c r="C26">
-        <v>22.610384854226702</v>
+        <v>2732.9620084795001</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -9499,24 +9908,24 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H26">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="I26">
-        <v>0.875</v>
+        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>59.971499999999899</v>
+        <v>185.55</v>
       </c>
       <c r="C27">
-        <v>22.152405988523</v>
+        <v>165.41503289692201</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -9528,24 +9937,53 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H27">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I27">
-        <v>0.875</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>182.68600000000001</v>
+      </c>
+      <c r="C28">
+        <v>173.88631341076299</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0.2</v>
+      </c>
+      <c r="H28">
+        <v>0.3</v>
+      </c>
+      <c r="I28">
+        <v>0.218181818181818</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>11.934699999999999</v>
+        <v>187.512</v>
       </c>
       <c r="C29">
-        <v>23.9895529366243</v>
+        <v>161.49718405794599</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -9557,24 +9995,53 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="I29">
-        <v>0.5</v>
+        <v>1.21818181818181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>41.771999999999998</v>
+      </c>
+      <c r="C30">
+        <v>698.95548180886601</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>39.6233</v>
+        <v>69.546000000000006</v>
       </c>
       <c r="C31">
-        <v>22.353619844245699</v>
+        <v>9.2869193740616307</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -9586,24 +10053,24 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H31">
         <v>0.9</v>
       </c>
       <c r="I31">
-        <v>0.875</v>
+        <v>0.73749999999999905</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>72.277699999999996</v>
+        <v>106.31399999999999</v>
       </c>
       <c r="C32">
-        <v>21.141514824455498</v>
+        <v>1.29562951022191</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -9615,13 +10082,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="I32">
-        <v>0.875</v>
+        <v>2.0874999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9629,7 +10096,7 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C65:C1048576 C1:C34">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9644,4 +10111,1711 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3244CD7E-5660-4DCD-890C-1162AF009B04}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>77.205399999999997</v>
+      </c>
+      <c r="C1">
+        <v>57.564917859035504</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0.7</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>0.91111111111111098</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>88.365899999999996</v>
+      </c>
+      <c r="C2">
+        <v>52.676786864665701</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0.91999999999999904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>24.671600000000002</v>
+      </c>
+      <c r="C3">
+        <v>66.150889632550204</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>66.340500000000006</v>
+      </c>
+      <c r="C4">
+        <v>62.875635691169599</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.7</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.91999999999999904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>72.1069999999999</v>
+      </c>
+      <c r="C5">
+        <v>62.558912536587698</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.7</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.91999999999999904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>69.108599999999996</v>
+      </c>
+      <c r="C6">
+        <v>59.359752077014299</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.7</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.92222222222222205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>73.2102</v>
+      </c>
+      <c r="C7">
+        <v>57.494118036915502</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.7</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0.91999999999999904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>43.704499999999904</v>
+      </c>
+      <c r="C8">
+        <v>62.239089184060703</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>83.639899999999898</v>
+      </c>
+      <c r="C10">
+        <v>57.747850340809599</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>9.5237000000001295</v>
+      </c>
+      <c r="C11">
+        <v>71.4297604581093</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>0.6</v>
+      </c>
+      <c r="I11">
+        <v>0.58888888888888802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>66.856200000000101</v>
+      </c>
+      <c r="C12">
+        <v>64.2948071486435</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.7</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0.91999999999999904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>90.162099999999995</v>
+      </c>
+      <c r="C13">
+        <v>60.338703015282903</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.3</v>
+      </c>
+      <c r="H13">
+        <v>0.5</v>
+      </c>
+      <c r="I13">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>59.553700000000099</v>
+      </c>
+      <c r="C14">
+        <v>63.966698177355397</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>87.057500000000005</v>
+      </c>
+      <c r="C15">
+        <v>60.105570679237701</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>17.640399999999801</v>
+      </c>
+      <c r="C16">
+        <v>68.476626402498397</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.2</v>
+      </c>
+      <c r="H16">
+        <v>0.3</v>
+      </c>
+      <c r="I16">
+        <v>0.27999999999999903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>77.445999999999898</v>
+      </c>
+      <c r="C18">
+        <v>61.997551857610702</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.7</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>17.805299999999999</v>
+      </c>
+      <c r="C19">
+        <v>69.504907884064593</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.2</v>
+      </c>
+      <c r="H19">
+        <v>0.3</v>
+      </c>
+      <c r="I19">
+        <v>0.27999999999999903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>82.982000000000099</v>
+      </c>
+      <c r="C20">
+        <v>7.9642459482865204</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.6</v>
+      </c>
+      <c r="H20">
+        <v>0.9</v>
+      </c>
+      <c r="I20">
+        <v>0.71111111111111103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>37.287799999999997</v>
+      </c>
+      <c r="C21">
+        <v>102.93506968091199</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>10.1173000000001</v>
+      </c>
+      <c r="C22">
+        <v>114.940424682154</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="H22">
+        <v>0.6</v>
+      </c>
+      <c r="I22">
+        <v>0.527272727272727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>83.469400000000206</v>
+      </c>
+      <c r="C23">
+        <v>67.459802904564299</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>174.14949999999899</v>
+      </c>
+      <c r="C24">
+        <v>65.429891943249999</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>0.189999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>85.335300000000103</v>
+      </c>
+      <c r="C25">
+        <v>66.547143672072295</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>45.194499999999998</v>
+      </c>
+      <c r="C26">
+        <v>98.581253945575895</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>194.7235</v>
+      </c>
+      <c r="C27">
+        <v>58.489614677705298</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.7</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0.91999999999999904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>188.61760000000001</v>
+      </c>
+      <c r="C28">
+        <v>64.562835236434196</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I28">
+        <v>1.07777777777777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>71.688800000000001</v>
+      </c>
+      <c r="C29">
+        <v>7.13631627143263</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.8</v>
+      </c>
+      <c r="H29">
+        <v>0.9</v>
+      </c>
+      <c r="I29">
+        <v>0.72222222222222199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>92.907599999999903</v>
+      </c>
+      <c r="C30">
+        <v>0.42198544150226802</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>2.1</v>
+      </c>
+      <c r="I30">
+        <v>2.0571428571428498</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64489442-20CE-4D4E-99B9-30BFAE48F1DA}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>53.648000000000003</v>
+      </c>
+      <c r="C1">
+        <v>582.13030953927102</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0.9</v>
+      </c>
+      <c r="H1">
+        <v>1.3</v>
+      </c>
+      <c r="I1">
+        <v>1.1416666666666599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>76.459000000000003</v>
+      </c>
+      <c r="C2">
+        <v>372.18476903870101</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.6</v>
+      </c>
+      <c r="H2">
+        <v>0.9</v>
+      </c>
+      <c r="I2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>35.131999999999998</v>
+      </c>
+      <c r="C3">
+        <v>844.68428854577803</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.9</v>
+      </c>
+      <c r="H3">
+        <v>1.5</v>
+      </c>
+      <c r="I3">
+        <v>1.25454545454545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>76.97</v>
+      </c>
+      <c r="C4">
+        <v>414.85784672747798</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.8</v>
+      </c>
+      <c r="H4">
+        <v>1.3</v>
+      </c>
+      <c r="I4">
+        <v>1.13333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>35.292999999999999</v>
+      </c>
+      <c r="C5">
+        <v>872.63247322216796</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.9</v>
+      </c>
+      <c r="H5">
+        <v>1.5</v>
+      </c>
+      <c r="I5">
+        <v>1.25833333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>8.2210000000000001</v>
+      </c>
+      <c r="C6">
+        <v>2723.3590220568599</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1.9</v>
+      </c>
+      <c r="H6">
+        <v>1.9</v>
+      </c>
+      <c r="I6">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>42.146000000000001</v>
+      </c>
+      <c r="C7">
+        <v>754.51774620675803</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>69.204999999999998</v>
+      </c>
+      <c r="C8">
+        <v>459.05624562922497</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.9</v>
+      </c>
+      <c r="H8">
+        <v>1.2</v>
+      </c>
+      <c r="I8">
+        <v>1.1083333333333301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>82.262</v>
+      </c>
+      <c r="C9">
+        <v>385.89950568380402</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.8</v>
+      </c>
+      <c r="H9">
+        <v>1.2</v>
+      </c>
+      <c r="I9">
+        <v>1.0833333333333299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>13.153</v>
+      </c>
+      <c r="C11">
+        <v>535.52758632171196</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.3</v>
+      </c>
+      <c r="H11">
+        <v>0.4</v>
+      </c>
+      <c r="I11">
+        <v>0.37272727272727202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>83.447999999999993</v>
+      </c>
+      <c r="C12">
+        <v>372.69065610332501</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+      <c r="H12">
+        <v>0.8</v>
+      </c>
+      <c r="I12">
+        <v>0.65454545454545399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>70.173000000000002</v>
+      </c>
+      <c r="C13">
+        <v>443.29210434319299</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>7.2560000000000002</v>
+      </c>
+      <c r="C14">
+        <v>2720.2086309424899</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I14">
+        <v>1.69999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>68.278000000000006</v>
+      </c>
+      <c r="C15">
+        <v>462.02510571704403</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.8</v>
+      </c>
+      <c r="H15">
+        <v>1.3</v>
+      </c>
+      <c r="I15">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>60.152999999999999</v>
+      </c>
+      <c r="C16">
+        <v>528.80452880452799</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1.3</v>
+      </c>
+      <c r="I16">
+        <v>1.1416666666666599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>83.555999999999997</v>
+      </c>
+      <c r="C17">
+        <v>368.10745135895303</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0.8</v>
+      </c>
+      <c r="H17">
+        <v>1.2</v>
+      </c>
+      <c r="I17">
+        <v>1.0833333333333299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>85.99</v>
+      </c>
+      <c r="C18">
+        <v>370.92452359157801</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.4</v>
+      </c>
+      <c r="H18">
+        <v>0.6</v>
+      </c>
+      <c r="I18">
+        <v>0.53333333333333299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>14.648999999999999</v>
+      </c>
+      <c r="C19">
+        <v>520.43161154960501</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.3</v>
+      </c>
+      <c r="H19">
+        <v>0.4</v>
+      </c>
+      <c r="I19">
+        <v>0.358333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>77.397999999999996</v>
+      </c>
+      <c r="C20">
+        <v>6.3378731167237996</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.6</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>32.716999999999999</v>
+      </c>
+      <c r="C21">
+        <v>973.13144437226197</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.9</v>
+      </c>
+      <c r="H21">
+        <v>1.5</v>
+      </c>
+      <c r="I21">
+        <v>1.24166666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>83.554000000000002</v>
+      </c>
+      <c r="C22">
+        <v>80.013929886239197</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>81.465000000000003</v>
+      </c>
+      <c r="C23">
+        <v>92.121613785104799</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>8.2379999999999995</v>
+      </c>
+      <c r="C24">
+        <v>2732.9620084795001</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.6</v>
+      </c>
+      <c r="H24">
+        <v>1.9</v>
+      </c>
+      <c r="I24">
+        <v>1.50833333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>185.55</v>
+      </c>
+      <c r="C25">
+        <v>165.41503289692201</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>182.68600000000001</v>
+      </c>
+      <c r="C26">
+        <v>173.88631341076299</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.2</v>
+      </c>
+      <c r="H26">
+        <v>0.3</v>
+      </c>
+      <c r="I26">
+        <v>0.218181818181818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>187.512</v>
+      </c>
+      <c r="C27">
+        <v>161.49718405794599</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1.4</v>
+      </c>
+      <c r="I27">
+        <v>1.21818181818181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>41.771999999999998</v>
+      </c>
+      <c r="C28">
+        <v>698.95548180886601</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>69.546000000000006</v>
+      </c>
+      <c r="C29">
+        <v>9.2869193740616307</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.7</v>
+      </c>
+      <c r="H29">
+        <v>0.9</v>
+      </c>
+      <c r="I29">
+        <v>0.73749999999999905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>106.31399999999999</v>
+      </c>
+      <c r="C30">
+        <v>1.29562951022191</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>2.1</v>
+      </c>
+      <c r="I30">
+        <v>2.0874999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/characterization/evaluation.xlsx
+++ b/characterization/evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 Documents\School\2019 Winter\CPEN431\01 Assignments\a6\cpen431_tests\characterization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED3F195-4CCC-407C-B495-A5A568224165}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CDA542-CA86-4D78-B39A-C56232EF69E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{4A74A29F-22B2-444C-9B02-847E95F6C2E4}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="6" xr2:uid="{4A74A29F-22B2-444C-9B02-847E95F6C2E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Latency vs Goodput" sheetId="2" r:id="rId1"/>
@@ -19,14 +19,8 @@
     <sheet name="Data" sheetId="1" r:id="rId4"/>
     <sheet name="Localhost_32_60" sheetId="5" r:id="rId5"/>
     <sheet name="AWS_32_60" sheetId="6" r:id="rId6"/>
+    <sheet name="AWS_256_60" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Data!$C$3:$C$32</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Data!$C$3:$C$32</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Data!#REF!</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Data!$A$3:$A$101</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Data!$C$3:$C$101</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="39">
   <si>
     <t>planetlab1.temple.edu</t>
   </si>
@@ -61,6 +55,9 @@
   </si>
   <si>
     <t>salt.planetlab.cs.umd.edu</t>
+  </si>
+  <si>
+    <t>planetlab2.cs.unc.edu</t>
   </si>
   <si>
     <t>planetlab3.cs.uoregon.edu</t>
@@ -322,9 +319,26 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-5E4C-43BF-8136-97B5A8BD942D}"/>
                 </c:ext>
@@ -372,10 +386,107 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.8952461562736226E-2"/>
-                  <c:y val="-5.3514887319792551E-2"/>
+                  <c:x val="-2.1361749643309072E-2"/>
+                  <c:y val="-2.5234888611320047E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -383,7 +494,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1B64A93-B629-4C6D-B009-EF29647D0B86}" type="CELLRANGE">
+                    <a:fld id="{4347DEB2-A066-472B-A1B6-344D111BBBD9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -405,127 +516,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D2E5C1BB-0E32-4592-8E77-BD8ECEE9757F}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
+                  <c16:uniqueId val="{0000000D-5E4C-43BF-8136-97B5A8BD942D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.3925240397738038E-4"/>
-                  <c:y val="-2.5234888611320047E-2"/>
+                  <c:x val="-8.1071251270969341E-2"/>
+                  <c:y val="-3.5334888150060223E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -533,7 +533,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94F2356B-B944-4A35-8AD2-012BB42569F0}" type="CELLRANGE">
+                    <a:fld id="{14821C1D-1A6F-4F51-BE79-020E407CC3A8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -554,16 +554,6 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-5E4C-43BF-8136-97B5A8BD942D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-5E4C-43BF-8136-97B5A8BD942D}"/>
                 </c:ext>
@@ -612,7 +602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6AE4C37-A78A-44AF-BDC2-1C3041DAD25D}" type="CELLRANGE">
+                    <a:fld id="{65BEF3E8-195C-4F75-BF3E-4F5390B8C899}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -651,7 +641,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93B7FDB9-D36C-48B3-8347-862A8CE800A5}" type="CELLRANGE">
+                    <a:fld id="{F68CEB4E-0719-4A60-8D58-5B3F5A5256EF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -700,7 +690,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B672E28-B8E2-4AF8-A97A-4C434083E5DB}" type="CELLRANGE">
+                    <a:fld id="{7940E254-9339-47B2-9C77-75EAD6F71211}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -739,7 +729,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D547577B-41CC-4BDD-AA3E-76BAC773A6C7}" type="CELLRANGE">
+                    <a:fld id="{2B44FBE6-1EB0-42B8-9E9E-D348A0B56CB8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -778,7 +768,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBE99479-B006-4C57-9DAA-26009A9AF86A}" type="CELLRANGE">
+                    <a:fld id="{46209E78-C277-4D36-8C6A-762E3F8264AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -817,7 +807,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D75DBE9C-4780-40C8-92BB-107436B9FCEA}" type="CELLRANGE">
+                    <a:fld id="{0E4DC4FF-53D1-4EEE-BCC5-B7C767A4D949}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -845,38 +835,9 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="25"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.8794936968346991E-2"/>
-                  <c:y val="-1.5134889072580017E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{99870480-4A9A-42F0-A8AA-A991FA888245}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-5E4C-43BF-8136-97B5A8BD942D}"/>
                 </c:ext>
@@ -886,8 +847,8 @@
               <c:idx val="26"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.7334439255081939E-2"/>
-                  <c:y val="1.9205109359136739E-2"/>
+                  <c:x val="-3.0004975955320517E-2"/>
+                  <c:y val="5.960510751409738E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -895,7 +856,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBC8414A-68B2-405B-A04E-8F76A9297CAE}" type="CELLRANGE">
+                    <a:fld id="{535189A5-998A-4B75-82E4-2A7540779020}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -944,7 +905,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B621DB4C-B134-440E-BFF4-BBFCF2017979}" type="CELLRANGE">
+                    <a:fld id="{D43ADF6F-96A8-46E1-9C54-8DC5151E8ED7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -972,13 +933,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="29"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1B45F5C0-D291-4DA9-B57A-BF8884DF43D9}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9344109991351294E-2"/>
+                  <c:y val="1.1125109728144594E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D95378B8-7A02-435D-85BE-E58C9F46A449}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -986,7 +953,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -996,7 +963,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2890,92 +2856,89 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
-                <c:pt idx="0">
-                  <c:v>53.648000000000003</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.459000000000003</c:v>
+                  <c:v>75.088999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.131999999999998</c:v>
+                  <c:v>36.215000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.97</c:v>
+                  <c:v>68.236000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.292999999999999</c:v>
+                  <c:v>41.722999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2210000000000001</c:v>
+                  <c:v>82.537999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.146000000000001</c:v>
+                  <c:v>35.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69.204999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82.262</c:v>
+                  <c:v>8.0739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.748999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.153</c:v>
+                  <c:v>84.569000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.447999999999993</c:v>
+                  <c:v>86.451999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.173000000000002</c:v>
+                  <c:v>84.364000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2560000000000002</c:v>
+                  <c:v>14.638999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.278000000000006</c:v>
+                  <c:v>73.293999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60.152999999999999</c:v>
+                  <c:v>68.286000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83.555999999999997</c:v>
+                  <c:v>59.991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85.99</c:v>
+                  <c:v>8.5440000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.648999999999999</c:v>
+                  <c:v>70.311000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>77.397999999999996</c:v>
+                  <c:v>13.699</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.716999999999999</c:v>
+                  <c:v>32.779000000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83.554000000000002</c:v>
+                  <c:v>184.62</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>81.465000000000003</c:v>
+                  <c:v>83.028999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.2379999999999995</c:v>
+                  <c:v>81.069000000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>185.55</c:v>
+                  <c:v>101.065</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>182.68600000000001</c:v>
+                  <c:v>8.2609999999999992</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>187.512</c:v>
+                  <c:v>186.666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41.771999999999998</c:v>
+                  <c:v>41.838000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>69.546000000000006</c:v>
+                  <c:v>187.88800000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>106.31399999999999</c:v>
+                  <c:v>71.212000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,92 +2949,89 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
-                <c:pt idx="0">
-                  <c:v>582.13030953927102</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>372.18476903870101</c:v>
+                  <c:v>2684.6667102767001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>844.68428854577803</c:v>
+                  <c:v>2722.6107613336198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>414.85784672747798</c:v>
+                  <c:v>2647.4626769001502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>872.63247322216796</c:v>
+                  <c:v>2639.20317184024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2723.3590220568599</c:v>
+                  <c:v>2717.2255717773601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>754.51774620675803</c:v>
+                  <c:v>2671.9310839913801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>459.05624562922497</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>385.89950568380402</c:v>
+                  <c:v>2619.3691891632302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2430.2428145855101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>535.52758632171196</c:v>
+                  <c:v>2727.84999501313</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>372.69065610332501</c:v>
+                  <c:v>2728.5536263188501</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>443.29210434319299</c:v>
+                  <c:v>2712.17608440409</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2720.2086309424899</c:v>
+                  <c:v>320.10937350091098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>462.02510571704403</c:v>
+                  <c:v>7.83215097977196</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>528.80452880452799</c:v>
+                  <c:v>2714.5666363711398</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>368.10745135895303</c:v>
+                  <c:v>2672.6683705862201</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>370.92452359157801</c:v>
+                  <c:v>2659.1304065357499</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>520.43161154960501</c:v>
+                  <c:v>1106.9322246930201</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.3378731167237996</c:v>
+                  <c:v>299.73949593262</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>973.13144437226197</c:v>
+                  <c:v>2726.8740031897901</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>80.013929886239197</c:v>
+                  <c:v>1281.44050763276</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>92.121613785104799</c:v>
+                  <c:v>86.360108346137395</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2732.9620084795001</c:v>
+                  <c:v>70.777412003038705</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>165.41503289692201</c:v>
+                  <c:v>9.5788654840530096</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>173.88631341076299</c:v>
+                  <c:v>2627.7565563509102</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>161.49718405794599</c:v>
+                  <c:v>1290.3118613654101</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>698.95548180886601</c:v>
+                  <c:v>2578.7714231904001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.2869193740616307</c:v>
+                  <c:v>1139.72761999667</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.29562951022191</c:v>
+                  <c:v>15.8221178454219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3083,92 +3043,89 @@
                 <c15:f>Data!$A$3:$A$100</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="98"/>
-                  <c:pt idx="0">
-                    <c:v>planetlab3.wail.wisc.edu</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>salt.planetlab.cs.umd.edu</c:v>
+                    <c:v>planetlab1.temple.edu</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>planetlab1.cs.uoregon.edu</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>planetlab1.temple.edu</c:v>
+                    <c:v>node2.planetlab.mathcs.emory.edu</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>planetlab1.dtc.umn.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>planetlab3.rutgers.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>planetlab3.cs.uoregon.edu</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="7">
                     <c:v>planetlab01.cs.washington.edu</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>planetlab1.dtc.umn.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>node2.planetlab.mathcs.emory.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>planetlab3.rutgers.edu</c:v>
+                  <c:pt idx="9">
+                    <c:v>salt.planetlab.cs.umd.edu</c:v>
                   </c:pt>
                   <c:pt idx="10">
+                    <c:v>plink.cs.uwaterloo.ca</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>pl1.rcc.uottawa.ca</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>planetlab2.citadel.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
                     <c:v>planetlab2.cs.ubc.ca</c:v>
                   </c:pt>
-                  <c:pt idx="11">
-                    <c:v>planetlab2.citadel.edu</c:v>
+                  <c:pt idx="14">
+                    <c:v>planetlab2.cs.purdue.edu</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="15">
+                    <c:v>node1.planetlab.mathcs.emory.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>planetlab-5.eecs.cwru.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>planetlab04.cs.washington.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
                     <c:v>node1.planetlab.albany.edu</c:v>
                   </c:pt>
-                  <c:pt idx="13">
-                    <c:v>planetlab04.cs.washington.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>node1.planetlab.mathcs.emory.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>planetlab-5.eecs.cwru.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>plink.cs.uwaterloo.ca</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>pl1.rcc.uottawa.ca</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>planetlab1.cs.ubc.ca</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>planetlab2.cs.purdue.edu</c:v>
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>planetlab-2.calpoly-netlab.net</c:v>
                   </c:pt>
                   <c:pt idx="21">
+                    <c:v>planetlab1.pop-pa.rnp.br</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
                     <c:v>planetlab-02.bu.edu</c:v>
                   </c:pt>
-                  <c:pt idx="22">
+                  <c:pt idx="23">
                     <c:v>planetlab-01.bu.edu</c:v>
                   </c:pt>
-                  <c:pt idx="23">
+                  <c:pt idx="24">
+                    <c:v>planetlab1.rutgers.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
                     <c:v>planetlab02.cs.washington.edu</c:v>
                   </c:pt>
-                  <c:pt idx="24">
-                    <c:v>planetlab1.pop-pa.rnp.br</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
+                  <c:pt idx="26">
                     <c:v>planetlab2.inf.ethz.ch</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>planetlab1.cesnet.cz</c:v>
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>planetlab2.dtc.umn.edu</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>planetlab1.cs.purdue.edu</c:v>
+                    <c:v>planetlab1.cesnet.cz</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>planetlab1.rutgers.edu</c:v>
+                    <c:v>planetlab1.cs.purdue.edu</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -3564,9 +3521,26 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-5903-45F4-9420-91AEE19A663C}"/>
                 </c:ext>
@@ -3584,18 +3558,119 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.2903707127112402E-3"/>
-                  <c:y val="1.0251101894044165E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{61E57044-FACE-478B-9A45-0F626AF45E9B}" type="CELLRANGE">
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{14DEC9E5-869A-422E-B7D6-973B6088205F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3604,7 +3679,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3614,29 +3689,30 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
+                  <c16:uniqueId val="{0000000B-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
+                  <c16:uniqueId val="{0000000C-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.2903707127112402E-3"/>
-                  <c:y val="-1.1094889257083797E-2"/>
+                  <c:x val="-9.025870466106542E-2"/>
+                  <c:y val="-2.5234888611320047E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3644,7 +3720,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C527F050-F09B-452F-88C8-68E50BEB877B}" type="CELLRANGE">
+                    <a:fld id="{C3C4DC5B-970F-4488-A9E1-A9BDD83CD48F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3666,18 +3742,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0D4952C0-AD02-481C-8855-8910E714EAD6}" type="CELLRANGE">
+                  <c16:uniqueId val="{0000000D-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9C7B9B21-642B-47D2-8973-519952BBEA1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3699,142 +3775,6 @@
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.879281200111315E-2"/>
-                  <c:y val="1.7185109451388701E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{9DA85904-84CE-4FAE-BC73-2F33591D60C5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-5903-45F4-9420-91AEE19A663C}"/>
                 </c:ext>
@@ -3893,7 +3833,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36101D34-24CF-4350-A716-87FE0E6C429B}" type="CELLRANGE">
+                    <a:fld id="{66A2E321-9DC8-4063-8641-5C5B8C48C0E2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3921,12 +3861,22 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="20"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{9617AB6A-2955-4F4F-909F-BA57EB5C3704}" type="CELLRANGE">
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{362EE105-F216-4174-8E6F-67C43F474B22}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3949,18 +3899,38 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3B29C806-DA46-48BD-814B-0BD01026DFFA}" type="CELLRANGE">
+                  <c16:uniqueId val="{00000015-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-5903-45F4-9420-91AEE19A663C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B4ADFDC8-E916-4D98-A4CD-6030C2B12401}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3983,151 +3953,15 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.4965203517265155E-4"/>
-                  <c:y val="-9.9488971834361907E-4"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{04EDF010-029D-4D35-A6A4-F04961C479AC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.1724597321017676E-2"/>
-                  <c:y val="-3.7354888057808261E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{374928C0-2B7D-4BF9-B3AA-676D0D9833B7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-5903-45F4-9420-91AEE19A663C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C5B99733-26C6-42F7-AE90-F04797DEE0F1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-5903-45F4-9420-91AEE19A663C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="25"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0C718EA0-270C-4673-B5D7-BC47D44F0C1C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-5903-45F4-9420-91AEE19A663C}"/>
                 </c:ext>
@@ -4146,7 +3980,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9D8756A-D690-403F-8E9D-7D631D8CC125}" type="CELLRANGE">
+                    <a:fld id="{3A900C78-206E-405B-80ED-0F10C4C97FCF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4195,7 +4029,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EFECC2C5-7927-4F45-993A-C5365509E7A4}" type="CELLRANGE">
+                    <a:fld id="{FB4A7020-9B66-41B3-9370-31E3BC24669A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4223,12 +4057,18 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="29"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BEC8E645-CD58-4C85-8499-97AB66FB9299}" type="CELLRANGE">
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.520768063116029E-2"/>
+                  <c:y val="1.9205109359136739E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FECC8990-4B6E-4745-AA36-46717DEB5FB7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4237,7 +4077,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4247,7 +4087,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6141,92 +5980,89 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
-                <c:pt idx="0">
-                  <c:v>1.1416666666666599</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>1.7083333333333299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.25454545454545</c:v>
+                  <c:v>1.8916666666666599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.13333333333333</c:v>
+                  <c:v>1.69166666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.25833333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.44</c:v>
+                  <c:v>1.6666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2.0166666666666599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6444444444444399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.68333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80833333333333302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4083333333333301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31666666666666599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.74166666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8416666666666599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1083333333333301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0833333333333299</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.37272727272727202</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.65454545454545399</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1416666666666599</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0833333333333299</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.53333333333333299</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.358333333333333</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.69</c:v>
+                  <c:v>0.32727272727272699</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.24166666666666</c:v>
+                  <c:v>2.0333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.50833333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.218181818181818</c:v>
+                  <c:v>1.68333333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.21818181818181</c:v>
+                  <c:v>0.358333333333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.73749999999999905</c:v>
+                  <c:v>1.9818181818181799</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0874999999999999</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6237,92 +6073,89 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
-                <c:pt idx="0">
-                  <c:v>582.13030953927102</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>372.18476903870101</c:v>
+                  <c:v>2684.6667102767001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>844.68428854577803</c:v>
+                  <c:v>2722.6107613336198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>414.85784672747798</c:v>
+                  <c:v>2647.4626769001502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>872.63247322216796</c:v>
+                  <c:v>2639.20317184024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2723.3590220568599</c:v>
+                  <c:v>2717.2255717773601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>754.51774620675803</c:v>
+                  <c:v>2671.9310839913801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>459.05624562922497</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>385.89950568380402</c:v>
+                  <c:v>2619.3691891632302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2430.2428145855101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>535.52758632171196</c:v>
+                  <c:v>2727.84999501313</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>372.69065610332501</c:v>
+                  <c:v>2728.5536263188501</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>443.29210434319299</c:v>
+                  <c:v>2712.17608440409</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2720.2086309424899</c:v>
+                  <c:v>320.10937350091098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>462.02510571704403</c:v>
+                  <c:v>7.83215097977196</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>528.80452880452799</c:v>
+                  <c:v>2714.5666363711398</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>368.10745135895303</c:v>
+                  <c:v>2672.6683705862201</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>370.92452359157801</c:v>
+                  <c:v>2659.1304065357499</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>520.43161154960501</c:v>
+                  <c:v>1106.9322246930201</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.3378731167237996</c:v>
+                  <c:v>299.73949593262</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>973.13144437226197</c:v>
+                  <c:v>2726.8740031897901</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>80.013929886239197</c:v>
+                  <c:v>1281.44050763276</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>92.121613785104799</c:v>
+                  <c:v>86.360108346137395</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2732.9620084795001</c:v>
+                  <c:v>70.777412003038705</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>165.41503289692201</c:v>
+                  <c:v>9.5788654840530096</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>173.88631341076299</c:v>
+                  <c:v>2627.7565563509102</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>161.49718405794599</c:v>
+                  <c:v>1290.3118613654101</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>698.95548180886601</c:v>
+                  <c:v>2578.7714231904001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.2869193740616307</c:v>
+                  <c:v>1139.72761999667</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.29562951022191</c:v>
+                  <c:v>15.8221178454219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6334,92 +6167,89 @@
                 <c15:f>Data!$A$3:$A$100</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="98"/>
-                  <c:pt idx="0">
-                    <c:v>planetlab3.wail.wisc.edu</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>salt.planetlab.cs.umd.edu</c:v>
+                    <c:v>planetlab1.temple.edu</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>planetlab1.cs.uoregon.edu</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>planetlab1.temple.edu</c:v>
+                    <c:v>node2.planetlab.mathcs.emory.edu</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>planetlab1.dtc.umn.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>planetlab3.rutgers.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>planetlab3.cs.uoregon.edu</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="7">
                     <c:v>planetlab01.cs.washington.edu</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>planetlab1.dtc.umn.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>node2.planetlab.mathcs.emory.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>planetlab3.rutgers.edu</c:v>
+                  <c:pt idx="9">
+                    <c:v>salt.planetlab.cs.umd.edu</c:v>
                   </c:pt>
                   <c:pt idx="10">
+                    <c:v>plink.cs.uwaterloo.ca</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>pl1.rcc.uottawa.ca</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>planetlab2.citadel.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
                     <c:v>planetlab2.cs.ubc.ca</c:v>
                   </c:pt>
-                  <c:pt idx="11">
-                    <c:v>planetlab2.citadel.edu</c:v>
+                  <c:pt idx="14">
+                    <c:v>planetlab2.cs.purdue.edu</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="15">
+                    <c:v>node1.planetlab.mathcs.emory.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>planetlab-5.eecs.cwru.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>planetlab04.cs.washington.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
                     <c:v>node1.planetlab.albany.edu</c:v>
                   </c:pt>
-                  <c:pt idx="13">
-                    <c:v>planetlab04.cs.washington.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>node1.planetlab.mathcs.emory.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>planetlab-5.eecs.cwru.edu</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>plink.cs.uwaterloo.ca</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>pl1.rcc.uottawa.ca</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>planetlab1.cs.ubc.ca</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>planetlab2.cs.purdue.edu</c:v>
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>planetlab-2.calpoly-netlab.net</c:v>
                   </c:pt>
                   <c:pt idx="21">
+                    <c:v>planetlab1.pop-pa.rnp.br</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
                     <c:v>planetlab-02.bu.edu</c:v>
                   </c:pt>
-                  <c:pt idx="22">
+                  <c:pt idx="23">
                     <c:v>planetlab-01.bu.edu</c:v>
                   </c:pt>
-                  <c:pt idx="23">
+                  <c:pt idx="24">
+                    <c:v>planetlab1.rutgers.edu</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
                     <c:v>planetlab02.cs.washington.edu</c:v>
                   </c:pt>
-                  <c:pt idx="24">
-                    <c:v>planetlab1.pop-pa.rnp.br</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
+                  <c:pt idx="26">
                     <c:v>planetlab2.inf.ethz.ch</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>planetlab1.cesnet.cz</c:v>
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>planetlab2.dtc.umn.edu</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>planetlab1.cs.purdue.edu</c:v>
+                    <c:v>planetlab1.cesnet.cz</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>planetlab1.rutgers.edu</c:v>
+                    <c:v>planetlab1.cs.purdue.edu</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -6799,6 +6629,98 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$3:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="1">
+                  <c:v>planetlab1.temple.edu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>planetlab1.cs.uoregon.edu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>node2.planetlab.mathcs.emory.edu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>planetlab1.dtc.umn.edu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>planetlab3.rutgers.edu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>planetlab3.cs.uoregon.edu</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>planetlab01.cs.washington.edu</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>salt.planetlab.cs.umd.edu</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>plink.cs.uwaterloo.ca</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>pl1.rcc.uottawa.ca</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>planetlab2.citadel.edu</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>planetlab2.cs.ubc.ca</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>planetlab2.cs.purdue.edu</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>node1.planetlab.mathcs.emory.edu</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>planetlab-5.eecs.cwru.edu</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>planetlab04.cs.washington.edu</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>node1.planetlab.albany.edu</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>planetlab1.cs.ubc.ca</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>planetlab-2.calpoly-netlab.net</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>planetlab1.pop-pa.rnp.br</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>planetlab-02.bu.edu</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>planetlab-01.bu.edu</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>planetlab1.rutgers.edu</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>planetlab02.cs.washington.edu</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>planetlab2.inf.ethz.ch</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>planetlab2.dtc.umn.edu</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>planetlab1.cesnet.cz</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>planetlab1.cs.purdue.edu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6871,104 +6793,182 @@
               <c:f>Data!$A$3:$A$101</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>planetlab3.wail.wisc.edu</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>salt.planetlab.cs.umd.edu</c:v>
+                  <c:v>planetlab1.temple.edu</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>planetlab1.cs.uoregon.edu</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>planetlab1.temple.edu</c:v>
+                  <c:v>node2.planetlab.mathcs.emory.edu</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>planetlab1.dtc.umn.edu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>planetlab3.rutgers.edu</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>planetlab3.cs.uoregon.edu</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>planetlab01.cs.washington.edu</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>planetlab1.dtc.umn.edu</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>node2.planetlab.mathcs.emory.edu</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>planetlab3.rutgers.edu</c:v>
+                <c:pt idx="9">
+                  <c:v>salt.planetlab.cs.umd.edu</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>plink.cs.uwaterloo.ca</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>pl1.rcc.uottawa.ca</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>planetlab2.citadel.edu</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>planetlab2.cs.ubc.ca</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>planetlab2.citadel.edu</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>planetlab2.cs.purdue.edu</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>node1.planetlab.mathcs.emory.edu</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>planetlab-5.eecs.cwru.edu</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>planetlab04.cs.washington.edu</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>node1.planetlab.albany.edu</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>planetlab04.cs.washington.edu</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>node1.planetlab.mathcs.emory.edu</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>planetlab-5.eecs.cwru.edu</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>plink.cs.uwaterloo.ca</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>pl1.rcc.uottawa.ca</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>planetlab1.cs.ubc.ca</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>planetlab2.cs.purdue.edu</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>planetlab-2.calpoly-netlab.net</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>planetlab1.pop-pa.rnp.br</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>planetlab-02.bu.edu</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>planetlab-01.bu.edu</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
+                  <c:v>planetlab1.rutgers.edu</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>planetlab02.cs.washington.edu</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>planetlab1.pop-pa.rnp.br</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>planetlab2.inf.ethz.ch</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>planetlab1.cesnet.cz</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>planetlab2.dtc.umn.edu</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>planetlab1.cesnet.cz</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>planetlab1.cs.purdue.edu</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>planetlab1.rutgers.edu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!#REF!</c:f>
+              <c:f>Data!$C$3:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="33"/>
+                <c:pt idx="1">
+                  <c:v>2684.6667102767001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2722.6107613336198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2647.4626769001502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2639.20317184024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2717.2255717773601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2671.9310839913801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2619.3691891632302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2430.2428145855101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2727.84999501313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2728.5536263188501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2712.17608440409</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>320.10937350091098</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.83215097977196</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2714.5666363711398</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2672.6683705862201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2659.1304065357499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1106.9322246930201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>299.73949593262</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2726.8740031897901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1281.44050763276</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86.360108346137395</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70.777412003038705</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.5788654840530096</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2627.7565563509102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1290.3118613654101</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2578.7714231904001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1139.72761999667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.8221178454219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8780,7 +8780,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{16123023-61F7-48C9-AD7A-B1C8435526B7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="101" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9196,8 +9196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A879D0C2-D73F-4949-B801-432DE79C1240}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9208,86 +9208,57 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>53.648000000000003</v>
-      </c>
-      <c r="C3">
-        <v>582.13030953927102</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.9</v>
-      </c>
-      <c r="H3">
-        <v>1.3</v>
-      </c>
-      <c r="I3">
-        <v>1.1416666666666599</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>76.459000000000003</v>
+        <v>75.088999999999999</v>
       </c>
       <c r="C4">
-        <v>372.18476903870101</v>
+        <v>2684.6667102767001</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -9299,13 +9270,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H4">
-        <v>0.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>1.7083333333333299</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
@@ -9313,10 +9284,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>35.131999999999998</v>
+        <v>36.215000000000003</v>
       </c>
       <c r="C5">
-        <v>844.68428854577803</v>
+        <v>2722.6107613336198</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -9328,24 +9299,24 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I5">
-        <v>1.25454545454545</v>
+        <v>1.8916666666666599</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>76.97</v>
+        <v>68.236000000000004</v>
       </c>
       <c r="C6">
-        <v>414.85784672747798</v>
+        <v>2647.4626769001502</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9357,24 +9328,24 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H6">
-        <v>1.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I6">
-        <v>1.13333333333333</v>
+        <v>1.69166666666666</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>35.292999999999999</v>
+        <v>41.722999999999999</v>
       </c>
       <c r="C7">
-        <v>872.63247322216796</v>
+        <v>2639.20317184024</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9386,24 +9357,24 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.25833333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>8.2210000000000001</v>
+        <v>82.537999999999997</v>
       </c>
       <c r="C8">
-        <v>2723.3590220568599</v>
+        <v>2717.2255717773601</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9415,24 +9386,24 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H8">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="I8">
-        <v>1.44</v>
+        <v>1.6666666666666601</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>42.146000000000001</v>
+        <v>35.332999999999998</v>
       </c>
       <c r="C9">
-        <v>754.51774620675803</v>
+        <v>2671.9310839913801</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -9444,24 +9415,24 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.0166666666666599</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>69.204999999999998</v>
+        <v>8.0739999999999998</v>
       </c>
       <c r="C10">
-        <v>459.05624562922497</v>
+        <v>2619.3691891632302</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -9473,53 +9444,53 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1.1083333333333301</v>
+        <v>1.6444444444444399</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>82.262</v>
-      </c>
-      <c r="C11">
-        <v>385.89950568380402</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0.8</v>
-      </c>
-      <c r="H11">
-        <v>1.2</v>
-      </c>
-      <c r="I11">
-        <v>1.0833333333333299</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>78.748999999999995</v>
+      </c>
+      <c r="C12">
+        <v>2430.2428145855101</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.6</v>
+      </c>
+      <c r="H12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I12">
+        <v>1.5999999999999901</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>13.153</v>
+        <v>84.569000000000003</v>
       </c>
       <c r="C13">
-        <v>535.52758632171196</v>
+        <v>2727.84999501313</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -9531,24 +9502,24 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="I13">
-        <v>0.37272727272727202</v>
+        <v>1.68333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>83.447999999999993</v>
+        <v>86.451999999999998</v>
       </c>
       <c r="C14">
-        <v>372.69065610332501</v>
+        <v>2728.5536263188501</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -9560,24 +9531,24 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0.65454545454545399</v>
+        <v>0.80833333333333302</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>70.173000000000002</v>
+        <v>84.364000000000004</v>
       </c>
       <c r="C15">
-        <v>443.29210434319299</v>
+        <v>2712.17608440409</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -9589,24 +9560,24 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.4083333333333301</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>7.2560000000000002</v>
+        <v>14.638999999999999</v>
       </c>
       <c r="C16">
-        <v>2720.2086309424899</v>
+        <v>320.10937350091098</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -9618,24 +9589,24 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.2000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="H16">
-        <v>2.2000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="I16">
-        <v>1.69999999999999</v>
+        <v>0.31666666666666599</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>68.278000000000006</v>
+        <v>73.293999999999997</v>
       </c>
       <c r="C17">
-        <v>462.02510571704403</v>
+        <v>7.83215097977196</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -9647,24 +9618,24 @@
         <v>0</v>
       </c>
       <c r="G17">
+        <v>0.6</v>
+      </c>
+      <c r="H17">
         <v>0.8</v>
       </c>
-      <c r="H17">
-        <v>1.3</v>
-      </c>
       <c r="I17">
-        <v>1.1499999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>60.152999999999999</v>
+        <v>68.286000000000001</v>
       </c>
       <c r="C18">
-        <v>528.80452880452799</v>
+        <v>2714.5666363711398</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -9676,24 +9647,24 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H18">
-        <v>1.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I18">
-        <v>1.1416666666666599</v>
+        <v>1.74166666666666</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>83.555999999999997</v>
+        <v>59.991</v>
       </c>
       <c r="C19">
-        <v>368.10745135895303</v>
+        <v>2672.6683705862201</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -9705,24 +9676,24 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I19">
-        <v>1.0833333333333299</v>
+        <v>1.8416666666666599</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>85.99</v>
+        <v>8.5440000000000005</v>
       </c>
       <c r="C20">
-        <v>370.92452359157801</v>
+        <v>2659.1304065357499</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -9734,13 +9705,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H20">
-        <v>0.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I20">
-        <v>0.53333333333333299</v>
+        <v>1.8999999999999899</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
@@ -9748,10 +9719,10 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>14.648999999999999</v>
+        <v>70.311000000000007</v>
       </c>
       <c r="C21">
-        <v>520.43161154960501</v>
+        <v>1106.9322246930201</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -9763,24 +9734,24 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.358333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>77.397999999999996</v>
+        <v>13.699</v>
       </c>
       <c r="C22">
-        <v>6.3378731167237996</v>
+        <v>299.73949593262</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -9792,24 +9763,24 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H22">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I22">
-        <v>0.69</v>
+        <v>0.32727272727272699</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>32.716999999999999</v>
+        <v>32.779000000000003</v>
       </c>
       <c r="C23">
-        <v>973.13144437226197</v>
+        <v>2726.8740031897901</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -9821,24 +9792,24 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I23">
-        <v>1.24166666666666</v>
+        <v>2.0333333333333301</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>83.554000000000002</v>
+        <v>184.62</v>
       </c>
       <c r="C24">
-        <v>80.013929886239197</v>
+        <v>1281.44050763276</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -9850,13 +9821,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
@@ -9864,10 +9835,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>81.465000000000003</v>
+        <v>83.028999999999996</v>
       </c>
       <c r="C25">
-        <v>92.121613785104799</v>
+        <v>86.360108346137395</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -9890,13 +9861,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>8.2379999999999995</v>
+        <v>81.069000000000003</v>
       </c>
       <c r="C26">
-        <v>2732.9620084795001</v>
+        <v>70.777412003038705</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -9908,24 +9879,24 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1.50833333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>185.55</v>
+        <v>101.065</v>
       </c>
       <c r="C27">
-        <v>165.41503289692201</v>
+        <v>9.5788654840530096</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -9937,24 +9908,24 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>1.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>182.68600000000001</v>
+        <v>8.2609999999999992</v>
       </c>
       <c r="C28">
-        <v>173.88631341076299</v>
+        <v>2627.7565563509102</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -9966,24 +9937,24 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H28">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="I28">
-        <v>0.218181818181818</v>
+        <v>1.68333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>187.512</v>
+        <v>186.666</v>
       </c>
       <c r="C29">
-        <v>161.49718405794599</v>
+        <v>1290.3118613654101</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -9995,24 +9966,24 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H29">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="I29">
-        <v>1.21818181818181</v>
+        <v>0.358333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>41.771999999999998</v>
+        <v>41.838000000000001</v>
       </c>
       <c r="C30">
-        <v>698.95548180886601</v>
+        <v>2578.7714231904001</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -10035,13 +10006,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B31">
-        <v>69.546000000000006</v>
+        <v>187.88800000000001</v>
       </c>
       <c r="C31">
-        <v>9.2869193740616307</v>
+        <v>1139.72761999667</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -10053,24 +10024,24 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H31">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="I31">
-        <v>0.73749999999999905</v>
+        <v>1.9818181818181799</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>106.31399999999999</v>
+        <v>71.212000000000003</v>
       </c>
       <c r="C32">
-        <v>1.29562951022191</v>
+        <v>15.8221178454219</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -10082,13 +10053,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H32">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="I32">
-        <v>2.0874999999999999</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -10183,7 +10154,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>24.671600000000002</v>
@@ -10241,7 +10212,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>72.1069999999999</v>
@@ -10299,7 +10270,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>73.2102</v>
@@ -10386,7 +10357,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>9.5237000000001295</v>
@@ -10415,7 +10386,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>66.856200000000101</v>
@@ -10444,7 +10415,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>90.162099999999995</v>
@@ -10473,7 +10444,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>59.553700000000099</v>
@@ -10502,7 +10473,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>87.057500000000005</v>
@@ -10531,7 +10502,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>17.640399999999801</v>
@@ -10560,7 +10531,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>77.445999999999898</v>
@@ -10589,7 +10560,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>17.805299999999999</v>
@@ -10618,7 +10589,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>82.982000000000099</v>
@@ -10647,7 +10618,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>37.287799999999997</v>
@@ -10676,7 +10647,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>10.1173000000001</v>
@@ -10705,7 +10676,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>83.469400000000206</v>
@@ -10734,7 +10705,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>174.14949999999899</v>
@@ -10763,7 +10734,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>85.335300000000103</v>
@@ -10792,7 +10763,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>45.194499999999998</v>
@@ -10821,7 +10792,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>194.7235</v>
@@ -10850,7 +10821,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>188.61760000000001</v>
@@ -10879,7 +10850,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>71.688800000000001</v>
@@ -10908,7 +10879,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>92.907599999999903</v>
@@ -11080,7 +11051,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>35.292999999999999</v>
@@ -11109,7 +11080,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>8.2210000000000001</v>
@@ -11196,7 +11167,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>82.262</v>
@@ -11225,7 +11196,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>13.153</v>
@@ -11254,7 +11225,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>83.447999999999993</v>
@@ -11283,7 +11254,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>70.173000000000002</v>
@@ -11312,7 +11283,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>7.2560000000000002</v>
@@ -11341,7 +11312,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>68.278000000000006</v>
@@ -11370,7 +11341,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>60.152999999999999</v>
@@ -11399,7 +11370,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>83.555999999999997</v>
@@ -11428,7 +11399,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>85.99</v>
@@ -11453,6 +11424,900 @@
       </c>
       <c r="I18">
         <v>0.53333333333333299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>14.648999999999999</v>
+      </c>
+      <c r="C19">
+        <v>520.43161154960501</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.3</v>
+      </c>
+      <c r="H19">
+        <v>0.4</v>
+      </c>
+      <c r="I19">
+        <v>0.358333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>77.397999999999996</v>
+      </c>
+      <c r="C20">
+        <v>6.3378731167237996</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.6</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>32.716999999999999</v>
+      </c>
+      <c r="C21">
+        <v>973.13144437226197</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.9</v>
+      </c>
+      <c r="H21">
+        <v>1.5</v>
+      </c>
+      <c r="I21">
+        <v>1.24166666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>83.554000000000002</v>
+      </c>
+      <c r="C22">
+        <v>80.013929886239197</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>81.465000000000003</v>
+      </c>
+      <c r="C23">
+        <v>92.121613785104799</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>8.2379999999999995</v>
+      </c>
+      <c r="C24">
+        <v>2732.9620084795001</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.6</v>
+      </c>
+      <c r="H24">
+        <v>1.9</v>
+      </c>
+      <c r="I24">
+        <v>1.50833333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>185.55</v>
+      </c>
+      <c r="C25">
+        <v>165.41503289692201</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>182.68600000000001</v>
+      </c>
+      <c r="C26">
+        <v>173.88631341076299</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.2</v>
+      </c>
+      <c r="H26">
+        <v>0.3</v>
+      </c>
+      <c r="I26">
+        <v>0.218181818181818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>187.512</v>
+      </c>
+      <c r="C27">
+        <v>161.49718405794599</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1.4</v>
+      </c>
+      <c r="I27">
+        <v>1.21818181818181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>41.771999999999998</v>
+      </c>
+      <c r="C28">
+        <v>698.95548180886601</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>69.546000000000006</v>
+      </c>
+      <c r="C29">
+        <v>9.2869193740616307</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.7</v>
+      </c>
+      <c r="H29">
+        <v>0.9</v>
+      </c>
+      <c r="I29">
+        <v>0.73749999999999905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>106.31399999999999</v>
+      </c>
+      <c r="C30">
+        <v>1.29562951022191</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>2.1</v>
+      </c>
+      <c r="I30">
+        <v>2.0874999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779C05FE-215E-4EEF-9BDB-8CDB8C59DE5D}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="30.3515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>54.591999999999999</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1.2</v>
+      </c>
+      <c r="I1">
+        <v>1.18333333333333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>75.088999999999999</v>
+      </c>
+      <c r="C2">
+        <v>2684.6667102767001</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.9</v>
+      </c>
+      <c r="H2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I2">
+        <v>1.7083333333333299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>36.215000000000003</v>
+      </c>
+      <c r="C3">
+        <v>2722.6107613336198</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I3">
+        <v>1.8916666666666599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>68.236000000000004</v>
+      </c>
+      <c r="C4">
+        <v>2647.4626769001502</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.7</v>
+      </c>
+      <c r="H4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I4">
+        <v>1.69166666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>41.722999999999999</v>
+      </c>
+      <c r="C5">
+        <v>2639.20317184024</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>82.537999999999997</v>
+      </c>
+      <c r="C6">
+        <v>2717.2255717773601</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.8</v>
+      </c>
+      <c r="H6">
+        <v>2.1</v>
+      </c>
+      <c r="I6">
+        <v>1.6666666666666601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>35.332999999999998</v>
+      </c>
+      <c r="C7">
+        <v>2671.9310839913801</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I7">
+        <v>2.0166666666666599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>8.0739999999999998</v>
+      </c>
+      <c r="C8">
+        <v>2619.3691891632302</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1.6444444444444399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>78.563999999999993</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>78.748999999999995</v>
+      </c>
+      <c r="C10">
+        <v>2430.2428145855101</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.6</v>
+      </c>
+      <c r="H10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I10">
+        <v>1.5999999999999901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>84.569000000000003</v>
+      </c>
+      <c r="C11">
+        <v>2727.84999501313</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2.1</v>
+      </c>
+      <c r="I11">
+        <v>1.68333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>86.451999999999998</v>
+      </c>
+      <c r="C12">
+        <v>2728.5536263188501</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.4</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0.80833333333333302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>84.364000000000004</v>
+      </c>
+      <c r="C13">
+        <v>2712.17608440409</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>1.9</v>
+      </c>
+      <c r="I13">
+        <v>1.4083333333333301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>14.638999999999999</v>
+      </c>
+      <c r="C14">
+        <v>320.10937350091098</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.2</v>
+      </c>
+      <c r="H14">
+        <v>0.4</v>
+      </c>
+      <c r="I14">
+        <v>0.31666666666666599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>73.293999999999997</v>
+      </c>
+      <c r="C15">
+        <v>7.83215097977196</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.6</v>
+      </c>
+      <c r="H15">
+        <v>0.8</v>
+      </c>
+      <c r="I15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>68.286000000000001</v>
+      </c>
+      <c r="C16">
+        <v>2714.5666363711398</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.7</v>
+      </c>
+      <c r="H16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I16">
+        <v>1.74166666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>59.991</v>
+      </c>
+      <c r="C17">
+        <v>2672.6683705862201</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I17">
+        <v>1.8416666666666599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>8.5440000000000005</v>
+      </c>
+      <c r="C18">
+        <v>2659.1304065357499</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I18">
+        <v>1.8999999999999899</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
@@ -11460,10 +12325,10 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>14.648999999999999</v>
+        <v>70.311000000000007</v>
       </c>
       <c r="C19">
-        <v>520.43161154960501</v>
+        <v>1106.9322246930201</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -11475,24 +12340,24 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.358333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>77.397999999999996</v>
+        <v>13.699</v>
       </c>
       <c r="C20">
-        <v>6.3378731167237996</v>
+        <v>299.73949593262</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -11504,24 +12369,24 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H20">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I20">
-        <v>0.69</v>
+        <v>0.32727272727272699</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>32.716999999999999</v>
+        <v>32.779000000000003</v>
       </c>
       <c r="C21">
-        <v>973.13144437226197</v>
+        <v>2726.8740031897901</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -11533,24 +12398,24 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I21">
-        <v>1.24166666666666</v>
+        <v>2.0333333333333301</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>83.554000000000002</v>
+        <v>184.62</v>
       </c>
       <c r="C22">
-        <v>80.013929886239197</v>
+        <v>1281.44050763276</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -11562,13 +12427,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.5">
@@ -11576,10 +12441,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>81.465000000000003</v>
+        <v>83.028999999999996</v>
       </c>
       <c r="C23">
-        <v>92.121613785104799</v>
+        <v>86.360108346137395</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -11602,13 +12467,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>8.2379999999999995</v>
+        <v>81.069000000000003</v>
       </c>
       <c r="C24">
-        <v>2732.9620084795001</v>
+        <v>70.777412003038705</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -11620,24 +12485,24 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.50833333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>185.55</v>
+        <v>101.065</v>
       </c>
       <c r="C25">
-        <v>165.41503289692201</v>
+        <v>9.5788654840530096</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -11649,24 +12514,24 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>1.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>182.68600000000001</v>
+        <v>8.2609999999999992</v>
       </c>
       <c r="C26">
-        <v>173.88631341076299</v>
+        <v>2627.7565563509102</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -11678,24 +12543,24 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H26">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="I26">
-        <v>0.218181818181818</v>
+        <v>1.68333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>187.512</v>
+        <v>186.666</v>
       </c>
       <c r="C27">
-        <v>161.49718405794599</v>
+        <v>1290.3118613654101</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -11707,24 +12572,24 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H27">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="I27">
-        <v>1.21818181818181</v>
+        <v>0.358333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>41.771999999999998</v>
+        <v>41.838000000000001</v>
       </c>
       <c r="C28">
-        <v>698.95548180886601</v>
+        <v>2578.7714231904001</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -11747,13 +12612,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>69.546000000000006</v>
+        <v>187.88800000000001</v>
       </c>
       <c r="C29">
-        <v>9.2869193740616307</v>
+        <v>1139.72761999667</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -11765,24 +12630,24 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H29">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="I29">
-        <v>0.73749999999999905</v>
+        <v>1.9818181818181799</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>106.31399999999999</v>
+        <v>71.212000000000003</v>
       </c>
       <c r="C30">
-        <v>1.29562951022191</v>
+        <v>15.8221178454219</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -11794,13 +12659,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H30">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="I30">
-        <v>2.0874999999999999</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
